--- a/r_medicine_schedule.xlsx
+++ b/r_medicine_schedule.xlsx
@@ -4,8 +4,9 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Info" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="2020-08-27" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="2020-08-28" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="2020-08-26" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="2020-08-27" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="2020-08-28" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t>https://events.linuxfoundation.org/r-medicine/program/schedule/</t>
   </si>
@@ -22,6 +23,20 @@
   </si>
   <si>
     <t>talk_speaker</t>
+  </si>
+  <si>
+    <t>11:00 – 15:00</t>
+  </si>
+  <si>
+    <t>101: Intro to R for Clinicians 
+Stephan Kadauke, Amrom Obstfeld, Joe Rudolf</t>
+  </si>
+  <si>
+    <t>15:00 – 19:00</t>
+  </si>
+  <si>
+    <t>201: Intro to Machine Learning with Tidymodels 
+Alison Hill</t>
   </si>
   <si>
     <t>11:00 – 11:15</t>
@@ -331,11 +346,11 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -381,6 +396,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -620,194 +639,23 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B8"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -822,171 +670,381 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B8"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>51</v>
+      <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>53</v>
+      <c r="A4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>55</v>
+      <c r="A5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>57</v>
+      <c r="A6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>59</v>
+      <c r="A7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>61</v>
+      <c r="A8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>63</v>
+      <c r="A9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>65</v>
+      <c r="A10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>67</v>
+      <c r="A11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>69</v>
+      <c r="A12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>71</v>
+      <c r="A13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>73</v>
+      <c r="A14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
+      <c r="A15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>76</v>
+      <c r="A16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>8</v>
+      <c r="A17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>79</v>
+      <c r="A18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>81</v>
+      <c r="A19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>31</v>
+      <c r="A20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>84</v>
+      <c r="A21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
